--- a/test/fixtures/excel_mda_sellar.xlsx
+++ b/test/fixtures/excel_mda_sellar.xlsx
@@ -1208,6 +1208,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1217,10 +1221,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1228,7 +1228,14 @@
     <cellStyle name="Titre 1" xfId="2" builtinId="16"/>
     <cellStyle name="Titre 3" xfId="3" builtinId="18"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2145,16 +2152,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B4:D7" totalsRowShown="0">
   <autoFilter ref="B4:D7"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" name="Priorité " dataDxfId="2"/>
-    <tableColumn id="3" name="complétion" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="4"/>
+    <tableColumn id="2" name="Priorité " dataDxfId="3"/>
+    <tableColumn id="3" name="complétion" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B4:E9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B4:E9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B4:E9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
@@ -2961,7 +2968,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3056,23 +3063,23 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
@@ -3278,7 +3285,7 @@
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -3306,7 +3313,7 @@
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
-      <c r="P12" s="45"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
@@ -3427,6 +3434,11 @@
     <mergeCell ref="B5:P5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="B6:P12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B1048572="false"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I12">
       <formula1>type_list</formula1>
